--- a/ReportDocs/Burndown_chart/BurnDown_Chart_SPRINT2.xlsx
+++ b/ReportDocs/Burndown_chart/BurnDown_Chart_SPRINT2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\Documents\FCT_4_ANO\MSP\PROJECT\MSP2324-G3\ReportDocs\Burndown_chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBC24D-FC0F-4128-829E-9633DCA442B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC5624-2345-4FE7-98CB-08DC616EE3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="63" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
@@ -2619,7 +2619,7 @@
     <col min="17" max="17" width="14.44140625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" customWidth="1"/>
     <col min="21" max="21" width="15.5546875" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="14.109375" customWidth="1"/>
